--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.533835</v>
+        <v>17.15177</v>
       </c>
       <c r="H2">
-        <v>27.06767</v>
+        <v>34.30354</v>
       </c>
       <c r="I2">
-        <v>0.2387004729612817</v>
+        <v>0.3417885598906996</v>
       </c>
       <c r="J2">
-        <v>0.188326562212335</v>
+        <v>0.2838492023609646</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889399666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N2">
-        <v>17.668199</v>
+        <v>38.929513</v>
       </c>
       <c r="O2">
-        <v>0.8160192454225522</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P2">
-        <v>0.8160192454225521</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q2">
-        <v>79.70616333772166</v>
+        <v>222.5700177293367</v>
       </c>
       <c r="R2">
-        <v>478.23698002633</v>
+        <v>1335.42010637602</v>
       </c>
       <c r="S2">
-        <v>0.1947841798278714</v>
+        <v>0.02360837588230342</v>
       </c>
       <c r="T2">
-        <v>0.153678099189533</v>
+        <v>0.01960632815028284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.533835</v>
+        <v>17.15177</v>
       </c>
       <c r="H3">
-        <v>27.06767</v>
+        <v>34.30354</v>
       </c>
       <c r="I3">
-        <v>0.2387004729612817</v>
+        <v>0.3417885598906996</v>
       </c>
       <c r="J3">
-        <v>0.188326562212335</v>
+        <v>0.2838492023609646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.327831666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N3">
-        <v>3.983495</v>
+        <v>517.777153</v>
       </c>
       <c r="O3">
-        <v>0.1839807545774479</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P3">
-        <v>0.1839807545774478</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q3">
-        <v>17.97065468444167</v>
+        <v>2960.264879836937</v>
       </c>
       <c r="R3">
-        <v>107.82392810665</v>
+        <v>17761.58927902162</v>
       </c>
       <c r="S3">
-        <v>0.0439162931334103</v>
+        <v>0.3140002714982056</v>
       </c>
       <c r="T3">
-        <v>0.03464846302280208</v>
+        <v>0.2607715326528027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.783142666666667</v>
+        <v>17.15177</v>
       </c>
       <c r="H4">
-        <v>14.349428</v>
+        <v>34.30354</v>
       </c>
       <c r="I4">
-        <v>0.08436178043951471</v>
+        <v>0.3417885598906996</v>
       </c>
       <c r="J4">
-        <v>0.09983786727684438</v>
+        <v>0.2838492023609646</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.889399666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N4">
-        <v>17.668199</v>
+        <v>6.892552</v>
       </c>
       <c r="O4">
-        <v>0.8160192454225522</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P4">
-        <v>0.8160192454225521</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q4">
-        <v>28.16983882668578</v>
+        <v>39.40648887234666</v>
       </c>
       <c r="R4">
-        <v>253.528549440172</v>
+        <v>236.43893323408</v>
       </c>
       <c r="S4">
-        <v>0.06884083641675583</v>
+        <v>0.004179912510190461</v>
       </c>
       <c r="T4">
-        <v>0.08146962111984746</v>
+        <v>0.003471341557878938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>14.349428</v>
       </c>
       <c r="I5">
-        <v>0.08436178043951471</v>
+        <v>0.09531514495540462</v>
       </c>
       <c r="J5">
-        <v>0.09983786727684438</v>
+        <v>0.1187362497321294</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.327831666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N5">
-        <v>3.983495</v>
+        <v>38.929513</v>
       </c>
       <c r="O5">
-        <v>0.1839807545774479</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P5">
-        <v>0.1839807545774478</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q5">
-        <v>6.351208298984445</v>
+        <v>62.06847154095155</v>
       </c>
       <c r="R5">
-        <v>57.16087469086001</v>
+        <v>558.616243868564</v>
       </c>
       <c r="S5">
-        <v>0.0155209440227589</v>
+        <v>0.006583707102727578</v>
       </c>
       <c r="T5">
-        <v>0.01836824615699692</v>
+        <v>0.008201474079259951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.650526666666666</v>
+        <v>4.783142666666667</v>
       </c>
       <c r="H6">
-        <v>10.95158</v>
+        <v>14.349428</v>
       </c>
       <c r="I6">
-        <v>0.06438547846128644</v>
+        <v>0.09531514495540462</v>
       </c>
       <c r="J6">
-        <v>0.07619693206668192</v>
+        <v>0.1187362497321294</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889399666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N6">
-        <v>17.668199</v>
+        <v>517.777153</v>
       </c>
       <c r="O6">
-        <v>0.8160192454225522</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P6">
-        <v>0.8160192454225521</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q6">
-        <v>21.49941053382445</v>
+        <v>825.5339974464982</v>
       </c>
       <c r="R6">
-        <v>193.49469480442</v>
+        <v>7429.805977018484</v>
       </c>
       <c r="S6">
-        <v>0.05253978955014894</v>
+        <v>0.08756577868919561</v>
       </c>
       <c r="T6">
-        <v>0.06217816300856725</v>
+        <v>0.109082687450072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.650526666666666</v>
+        <v>4.783142666666667</v>
       </c>
       <c r="H7">
-        <v>10.95158</v>
+        <v>14.349428</v>
       </c>
       <c r="I7">
-        <v>0.06438547846128644</v>
+        <v>0.09531514495540462</v>
       </c>
       <c r="J7">
-        <v>0.07619693206668192</v>
+        <v>0.1187362497321294</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.327831666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N7">
-        <v>3.983495</v>
+        <v>6.892552</v>
       </c>
       <c r="O7">
-        <v>0.1839807545774479</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P7">
-        <v>0.1839807545774478</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q7">
-        <v>4.847284908011111</v>
+        <v>10.98935318447289</v>
       </c>
       <c r="R7">
-        <v>43.62556417210001</v>
+        <v>98.90417866025599</v>
       </c>
       <c r="S7">
-        <v>0.0118456889111375</v>
+        <v>0.001165659163481423</v>
       </c>
       <c r="T7">
-        <v>0.01401876905811467</v>
+        <v>0.001452088202797485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8328005</v>
+        <v>3.755572666666666</v>
       </c>
       <c r="H8">
-        <v>25.665601</v>
+        <v>11.266718</v>
       </c>
       <c r="I8">
-        <v>0.2263361086320154</v>
+        <v>0.07483844368860322</v>
       </c>
       <c r="J8">
-        <v>0.1785714988930879</v>
+        <v>0.09322795599305267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.889399666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N8">
-        <v>17.668199</v>
+        <v>38.929513</v>
       </c>
       <c r="O8">
-        <v>0.8160192454225522</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P8">
-        <v>0.8160192454225521</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q8">
-        <v>75.57749098709984</v>
+        <v>48.73420498314822</v>
       </c>
       <c r="R8">
-        <v>453.4649459225991</v>
+        <v>438.607844848334</v>
       </c>
       <c r="S8">
-        <v>0.1846946205777741</v>
+        <v>0.005169319036342678</v>
       </c>
       <c r="T8">
-        <v>0.1457177797807117</v>
+        <v>0.006439538609854798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8328005</v>
+        <v>3.755572666666666</v>
       </c>
       <c r="H9">
-        <v>25.665601</v>
+        <v>11.266718</v>
       </c>
       <c r="I9">
-        <v>0.2263361086320154</v>
+        <v>0.07483844368860322</v>
       </c>
       <c r="J9">
-        <v>0.1785714988930879</v>
+        <v>0.09322795599305267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.327831666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N9">
-        <v>3.983495</v>
+        <v>517.777153</v>
       </c>
       <c r="O9">
-        <v>0.1839807545774479</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P9">
-        <v>0.1839807545774478</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q9">
-        <v>17.03979887591584</v>
+        <v>648.1832410770949</v>
       </c>
       <c r="R9">
-        <v>102.238793255495</v>
+        <v>5833.649169693854</v>
       </c>
       <c r="S9">
-        <v>0.04164148805424141</v>
+        <v>0.06875388586510742</v>
       </c>
       <c r="T9">
-        <v>0.0328537191123762</v>
+        <v>0.08564828355402739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.70308866666667</v>
+        <v>3.755572666666666</v>
       </c>
       <c r="H10">
-        <v>41.10926600000001</v>
+        <v>11.266718</v>
       </c>
       <c r="I10">
-        <v>0.2416856527188127</v>
+        <v>0.07483844368860322</v>
       </c>
       <c r="J10">
-        <v>0.2860226514085782</v>
+        <v>0.09322795599305267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889399666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N10">
-        <v>17.668199</v>
+        <v>6.892552</v>
       </c>
       <c r="O10">
-        <v>0.8160192454225522</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P10">
-        <v>0.8160192454225521</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q10">
-        <v>80.70296582577045</v>
+        <v>8.628493298259555</v>
       </c>
       <c r="R10">
-        <v>726.3266924319341</v>
+        <v>77.65643968433599</v>
       </c>
       <c r="S10">
-        <v>0.1972201439610626</v>
+        <v>0.0009152387871531247</v>
       </c>
       <c r="T10">
-        <v>0.2333999881761857</v>
+        <v>0.001140133829170478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.70308866666667</v>
+        <v>12.544146</v>
       </c>
       <c r="H11">
-        <v>41.10926600000001</v>
+        <v>25.088292</v>
       </c>
       <c r="I11">
-        <v>0.2416856527188127</v>
+        <v>0.2499710290190855</v>
       </c>
       <c r="J11">
-        <v>0.2860226514085782</v>
+        <v>0.2075964076243726</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.327831666666667</v>
+        <v>12.97650433333333</v>
       </c>
       <c r="N11">
-        <v>3.983495</v>
+        <v>38.929513</v>
       </c>
       <c r="O11">
-        <v>0.1839807545774479</v>
+        <v>0.06907304296508091</v>
       </c>
       <c r="P11">
-        <v>0.1839807545774478</v>
+        <v>0.06907304296508089</v>
       </c>
       <c r="Q11">
-        <v>18.19539506274111</v>
+        <v>162.779164926966</v>
       </c>
       <c r="R11">
-        <v>163.75855556467</v>
+        <v>976.6749895617961</v>
       </c>
       <c r="S11">
-        <v>0.04446550875775018</v>
+        <v>0.01726625962746078</v>
       </c>
       <c r="T11">
-        <v>0.05262266323239255</v>
+        <v>0.01433931558323473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.194588</v>
+        <v>12.544146</v>
       </c>
       <c r="H12">
-        <v>24.583764</v>
+        <v>25.088292</v>
       </c>
       <c r="I12">
-        <v>0.1445305067870891</v>
+        <v>0.2499710290190855</v>
       </c>
       <c r="J12">
-        <v>0.1710444881424726</v>
+        <v>0.2075964076243726</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.889399666666667</v>
+        <v>172.5923843333333</v>
       </c>
       <c r="N12">
-        <v>17.668199</v>
+        <v>517.777153</v>
       </c>
       <c r="O12">
-        <v>0.8160192454225522</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="P12">
-        <v>0.8160192454225521</v>
+        <v>0.918697429775355</v>
       </c>
       <c r="Q12">
-        <v>48.26120383567066</v>
+        <v>2165.024067565446</v>
       </c>
       <c r="R12">
-        <v>434.350834521036</v>
+        <v>12990.14440539268</v>
       </c>
       <c r="S12">
-        <v>0.1179396750889395</v>
+        <v>0.2296477418781345</v>
       </c>
       <c r="T12">
-        <v>0.1395755941477072</v>
+        <v>0.190718286115108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.194588</v>
+        <v>12.544146</v>
       </c>
       <c r="H13">
-        <v>24.583764</v>
+        <v>25.088292</v>
       </c>
       <c r="I13">
-        <v>0.1445305067870891</v>
+        <v>0.2499710290190855</v>
       </c>
       <c r="J13">
-        <v>0.1710444881424726</v>
+        <v>0.2075964076243726</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.327831666666667</v>
+        <v>2.297517333333333</v>
       </c>
       <c r="N13">
-        <v>3.983495</v>
+        <v>6.892552</v>
       </c>
       <c r="O13">
-        <v>0.1839807545774479</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="P13">
-        <v>0.1839807545774478</v>
+        <v>0.01222952725956408</v>
       </c>
       <c r="Q13">
-        <v>10.88103344168667</v>
+        <v>28.820392866864</v>
       </c>
       <c r="R13">
-        <v>97.92930097518</v>
+        <v>172.922357201184</v>
       </c>
       <c r="S13">
-        <v>0.0265908316981496</v>
+        <v>0.00305702751349019</v>
       </c>
       <c r="T13">
-        <v>0.03146889399476545</v>
+        <v>0.002538805926029841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.593081</v>
+      </c>
+      <c r="H14">
+        <v>25.779243</v>
+      </c>
+      <c r="I14">
+        <v>0.1712369498899608</v>
+      </c>
+      <c r="J14">
+        <v>0.2133137735353109</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.97650433333333</v>
+      </c>
+      <c r="N14">
+        <v>38.929513</v>
+      </c>
+      <c r="O14">
+        <v>0.06907304296508091</v>
+      </c>
+      <c r="P14">
+        <v>0.06907304296508089</v>
+      </c>
+      <c r="Q14">
+        <v>111.5081528331843</v>
+      </c>
+      <c r="R14">
+        <v>1003.573375498659</v>
+      </c>
+      <c r="S14">
+        <v>0.01182785719695867</v>
+      </c>
+      <c r="T14">
+        <v>0.01473423144444807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.593081</v>
+      </c>
+      <c r="H15">
+        <v>25.779243</v>
+      </c>
+      <c r="I15">
+        <v>0.1712369498899608</v>
+      </c>
+      <c r="J15">
+        <v>0.2133137735353109</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>172.5923843333333</v>
+      </c>
+      <c r="N15">
+        <v>517.777153</v>
+      </c>
+      <c r="O15">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="P15">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="Q15">
+        <v>1483.100338559464</v>
+      </c>
+      <c r="R15">
+        <v>13347.90304703518</v>
+      </c>
+      <c r="S15">
+        <v>0.1573149457464782</v>
+      </c>
+      <c r="T15">
+        <v>0.1959708154825723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.593081</v>
+      </c>
+      <c r="H16">
+        <v>25.779243</v>
+      </c>
+      <c r="I16">
+        <v>0.1712369498899608</v>
+      </c>
+      <c r="J16">
+        <v>0.2133137735353109</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.297517333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.892552</v>
+      </c>
+      <c r="O16">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="P16">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="Q16">
+        <v>19.74275254423733</v>
+      </c>
+      <c r="R16">
+        <v>177.684772898136</v>
+      </c>
+      <c r="S16">
+        <v>0.002094146946523884</v>
+      </c>
+      <c r="T16">
+        <v>0.002608726608290565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.354687</v>
+      </c>
+      <c r="H17">
+        <v>10.064061</v>
+      </c>
+      <c r="I17">
+        <v>0.06684987255624644</v>
+      </c>
+      <c r="J17">
+        <v>0.08327641075416972</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.97650433333333</v>
+      </c>
+      <c r="N17">
+        <v>38.929513</v>
+      </c>
+      <c r="O17">
+        <v>0.06907304296508091</v>
+      </c>
+      <c r="P17">
+        <v>0.06907304296508089</v>
+      </c>
+      <c r="Q17">
+        <v>43.53211039247699</v>
+      </c>
+      <c r="R17">
+        <v>391.788993532293</v>
+      </c>
+      <c r="S17">
+        <v>0.004617524119287794</v>
+      </c>
+      <c r="T17">
+        <v>0.00575215509800049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.354687</v>
+      </c>
+      <c r="H18">
+        <v>10.064061</v>
+      </c>
+      <c r="I18">
+        <v>0.06684987255624644</v>
+      </c>
+      <c r="J18">
+        <v>0.08327641075416972</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.5923843333333</v>
+      </c>
+      <c r="N18">
+        <v>517.777153</v>
+      </c>
+      <c r="O18">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="P18">
+        <v>0.918697429775355</v>
+      </c>
+      <c r="Q18">
+        <v>578.9934280220369</v>
+      </c>
+      <c r="R18">
+        <v>5210.940852198332</v>
+      </c>
+      <c r="S18">
+        <v>0.06141480609823365</v>
+      </c>
+      <c r="T18">
+        <v>0.07650582452077245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.354687</v>
+      </c>
+      <c r="H19">
+        <v>10.064061</v>
+      </c>
+      <c r="I19">
+        <v>0.06684987255624644</v>
+      </c>
+      <c r="J19">
+        <v>0.08327641075416972</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.297517333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.892552</v>
+      </c>
+      <c r="O19">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="P19">
+        <v>0.01222952725956408</v>
+      </c>
+      <c r="Q19">
+        <v>7.707451530408</v>
+      </c>
+      <c r="R19">
+        <v>69.367063773672</v>
+      </c>
+      <c r="S19">
+        <v>0.0008175423387250007</v>
+      </c>
+      <c r="T19">
+        <v>0.001018431135396774</v>
       </c>
     </row>
   </sheetData>
